--- a/output_result_openpyxl.xlsx
+++ b/output_result_openpyxl.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,21 +44,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,760 +430,2665 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Start Time</t>
+          <t>Start Time 1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time 2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time 3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time 4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time 5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time 6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0.6774537037037037</v>
       </c>
-      <c r="B2" s="1" t="n"/>
+      <c r="B2" s="2" t="n">
+        <v>0.6827430555555556</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.6912962962962963</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.6984722222222223</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.7048263888888889</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.7121412037037037</v>
+      </c>
+      <c r="G2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>0.6774652777777778</v>
       </c>
-      <c r="B3" s="1" t="n"/>
+      <c r="B3" s="2" t="n">
+        <v>0.6827546296296296</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.6913078703703703</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.6984837962962963</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.704837962962963</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.7121527777777777</v>
+      </c>
+      <c r="G3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>0.6774768518518518</v>
       </c>
-      <c r="B4" s="1" t="n"/>
+      <c r="B4" s="2" t="n">
+        <v>0.6827662037037037</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.6913194444444445</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.6984953703703703</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.704849537037037</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.7121643518518519</v>
+      </c>
+      <c r="G4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>0.677488425925926</v>
       </c>
-      <c r="B5" s="1" t="n"/>
+      <c r="B5" s="2" t="n">
+        <v>0.6827777777777778</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.6913310185185185</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.6985069444444445</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.7121759259259259</v>
+      </c>
+      <c r="G5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>0.6775</v>
       </c>
-      <c r="B6" s="1" t="n"/>
+      <c r="B6" s="2" t="n">
+        <v>0.6827893518518519</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.6913425925925926</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.6985185185185185</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0.7048726851851852</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.7121875</v>
+      </c>
+      <c r="G6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>0.677511574074074</v>
       </c>
-      <c r="B7" s="1" t="n"/>
+      <c r="B7" s="2" t="n">
+        <v>0.6828009259259259</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.6913541666666667</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.6985300925925926</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.7048842592592592</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.7121990740740741</v>
+      </c>
+      <c r="G7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>0.6775231481481482</v>
       </c>
-      <c r="B8" s="1" t="n"/>
+      <c r="B8" s="2" t="n">
+        <v>0.6828125</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.6913657407407408</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.6985416666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.7048958333333334</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.7122106481481482</v>
+      </c>
+      <c r="G8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>0.6775347222222222</v>
       </c>
-      <c r="B9" s="1" t="n"/>
+      <c r="B9" s="2" t="n">
+        <v>0.6828240740740741</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.6913773148148148</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.6985532407407408</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.7049074074074074</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.7122222222222222</v>
+      </c>
+      <c r="G9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>0.6775462962962963</v>
       </c>
-      <c r="B10" s="1" t="n"/>
+      <c r="B10" s="2" t="n">
+        <v>0.6828356481481481</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.6913888888888889</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.6985648148148148</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.7049189814814815</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.7122337962962964</v>
+      </c>
+      <c r="G10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>0.6775578703703704</v>
       </c>
-      <c r="B11" s="1" t="n"/>
+      <c r="B11" s="2" t="n">
+        <v>0.6828472222222223</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.691400462962963</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.6985763888888888</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.7049305555555555</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.7122453703703704</v>
+      </c>
+      <c r="G11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>0.6775694444444444</v>
       </c>
-      <c r="B12" s="1" t="n"/>
+      <c r="B12" s="2" t="n">
+        <v>0.6828587962962963</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.691412037037037</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.698587962962963</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.7049421296296297</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.7122569444444444</v>
+      </c>
+      <c r="G12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>0.6775810185185185</v>
       </c>
-      <c r="B13" s="1" t="n"/>
+      <c r="B13" s="2" t="n">
+        <v>0.6828703703703703</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.6914236111111111</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.698599537037037</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0.7049537037037037</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0.7122685185185185</v>
+      </c>
+      <c r="G13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>0.6775925925925926</v>
       </c>
-      <c r="B14" s="1" t="n"/>
+      <c r="B14" s="2" t="n">
+        <v>0.6828819444444445</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0.6914351851851852</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.6986111111111111</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0.7049652777777777</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0.7122800925925926</v>
+      </c>
+      <c r="G14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>0.6776041666666667</v>
       </c>
-      <c r="B15" s="1" t="n"/>
+      <c r="B15" s="2" t="n">
+        <v>0.6828935185185185</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0.6914467592592592</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.6986226851851852</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.7049768518518519</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0.7122916666666667</v>
+      </c>
+      <c r="G15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>0.6776157407407407</v>
       </c>
-      <c r="B16" s="1" t="n"/>
+      <c r="B16" s="2" t="n">
+        <v>0.6829050925925926</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0.6914583333333333</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.6986342592592593</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0.7049884259259259</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0.7123032407407407</v>
+      </c>
+      <c r="G16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>0.6776273148148149</v>
       </c>
-      <c r="B17" s="1" t="n"/>
+      <c r="B17" s="2" t="n">
+        <v>0.6829166666666666</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0.6914699074074074</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.6986458333333333</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.7123148148148148</v>
+      </c>
+      <c r="G17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>0.6776388888888889</v>
       </c>
-      <c r="B18" s="1" t="n"/>
+      <c r="B18" s="2" t="n">
+        <v>0.6829282407407408</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0.6914814814814815</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.6986574074074074</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0.7050115740740741</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.7123263888888889</v>
+      </c>
+      <c r="G18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>0.6776504629629629</v>
       </c>
-      <c r="B19" s="1" t="n"/>
+      <c r="B19" s="2" t="n">
+        <v>0.6829398148148148</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0.6914930555555555</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.6986689814814815</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0.7050231481481481</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0.7123379629629629</v>
+      </c>
+      <c r="G19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
         <v>0.6776620370370371</v>
       </c>
-      <c r="B20" s="1" t="n"/>
+      <c r="B20" s="2" t="n">
+        <v>0.6829513888888888</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0.6915046296296297</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.6986805555555555</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0.7050347222222222</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0.7123495370370371</v>
+      </c>
+      <c r="G20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>0.6776736111111111</v>
       </c>
-      <c r="B21" s="1" t="n"/>
+      <c r="B21" s="2" t="n">
+        <v>0.682962962962963</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0.6915162037037037</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0.6986921296296297</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0.7050462962962963</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0.7123611111111111</v>
+      </c>
+      <c r="G21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>0.6776851851851852</v>
       </c>
-      <c r="B22" s="1" t="n"/>
+      <c r="B22" s="2" t="n">
+        <v>0.682974537037037</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.6915277777777777</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0.6987037037037037</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0.7050578703703704</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0.7123726851851852</v>
+      </c>
+      <c r="G22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>0.6776967592592592</v>
       </c>
-      <c r="B23" s="1" t="n"/>
+      <c r="B23" s="2" t="n">
+        <v>0.6829861111111111</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0.6915393518518519</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0.6987152777777778</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0.7050694444444444</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0.7123842592592593</v>
+      </c>
+      <c r="G23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>0.6777083333333334</v>
       </c>
-      <c r="B24" s="1" t="n"/>
+      <c r="B24" s="2" t="n">
+        <v>0.6829976851851852</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0.6915509259259259</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0.6987268518518519</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0.7050810185185186</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0.7123958333333333</v>
+      </c>
+      <c r="G24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>0.6777199074074074</v>
       </c>
-      <c r="B25" s="1" t="n"/>
+      <c r="B25" s="2" t="n">
+        <v>0.6830092592592593</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0.6915625</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0.6987384259259259</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>0.7050925925925926</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>0.7124074074074074</v>
+      </c>
+      <c r="G25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
         <v>0.6777314814814814</v>
       </c>
-      <c r="B26" s="1" t="n"/>
+      <c r="B26" s="2" t="n">
+        <v>0.6830208333333333</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0.6915740740740741</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0.69875</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0.7051041666666666</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0.7124189814814815</v>
+      </c>
+      <c r="G26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>0.6777430555555556</v>
       </c>
-      <c r="B27" s="1" t="n"/>
+      <c r="B27" s="2" t="n">
+        <v>0.6830324074074074</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0.6915856481481482</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0.698761574074074</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0.7051157407407408</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0.7124305555555556</v>
+      </c>
+      <c r="G27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>0.6777546296296296</v>
       </c>
-      <c r="B28" s="1" t="n"/>
+      <c r="B28" s="2" t="n">
+        <v>0.6830439814814815</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0.6915972222222222</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0.6987731481481482</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0.7051273148148148</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0.7124421296296296</v>
+      </c>
+      <c r="G28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
         <v>0.6777662037037037</v>
       </c>
-      <c r="B29" s="1" t="n"/>
+      <c r="B29" s="2" t="n">
+        <v>0.6830555555555555</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0.6916087962962963</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0.6987847222222222</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0.7051388888888889</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0.7124537037037038</v>
+      </c>
+      <c r="G29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>0.6777777777777778</v>
       </c>
-      <c r="B30" s="1" t="n"/>
+      <c r="B30" s="2" t="n">
+        <v>0.6830671296296297</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0.6916203703703704</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0.6987962962962962</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0.7051504629629629</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0.7124652777777778</v>
+      </c>
+      <c r="G30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>0.6777893518518519</v>
       </c>
-      <c r="B31" s="1" t="n"/>
+      <c r="B31" s="2" t="n">
+        <v>0.6830787037037037</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0.6916319444444444</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0.6988078703703704</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0.7051620370370371</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>0.7124768518518518</v>
+      </c>
+      <c r="G31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
         <v>0.6778009259259259</v>
       </c>
-      <c r="B32" s="1" t="n"/>
+      <c r="B32" s="2" t="n">
+        <v>0.6830902777777778</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0.6916435185185185</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>0.6988194444444444</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>0.7051736111111111</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>0.7124884259259259</v>
+      </c>
+      <c r="G32" s="1" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
         <v>0.6778125</v>
       </c>
-      <c r="B33" s="1" t="n"/>
+      <c r="B33" s="2" t="n">
+        <v>0.6831018518518519</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0.6916550925925926</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>0.6988310185185185</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>0.7051851851851851</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="G33" s="1" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
         <v>0.6778240740740741</v>
       </c>
-      <c r="B34" s="1" t="n"/>
+      <c r="B34" s="2" t="n">
+        <v>0.6831134259259259</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0.6916666666666667</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>0.6988425925925926</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>0.7051967592592593</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>0.7125115740740741</v>
+      </c>
+      <c r="G34" s="1" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
         <v>0.6778356481481481</v>
       </c>
-      <c r="B35" s="1" t="n"/>
+      <c r="B35" s="2" t="n">
+        <v>0.683125</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0.6916782407407407</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>0.6988541666666667</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>0.7052083333333333</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>0.7125231481481481</v>
+      </c>
+      <c r="G35" s="1" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
         <v>0.6778472222222223</v>
       </c>
-      <c r="B36" s="1" t="n"/>
+      <c r="B36" s="2" t="n">
+        <v>0.683136574074074</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>0.6916898148148148</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>0.6988657407407407</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>0.7052199074074074</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>0.7125347222222222</v>
+      </c>
+      <c r="G36" s="1" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
         <v>0.6778587962962963</v>
       </c>
-      <c r="B37" s="1" t="n"/>
+      <c r="B37" s="2" t="n">
+        <v>0.6831481481481482</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>0.6917013888888889</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>0.6988773148148149</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>0.7052314814814815</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>0.7125462962962963</v>
+      </c>
+      <c r="G37" s="1" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
         <v>0.6778703703703703</v>
       </c>
-      <c r="B38" s="1" t="n"/>
+      <c r="B38" s="2" t="n">
+        <v>0.6831597222222222</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>0.6917129629629629</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>0.6988888888888889</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>0.7052430555555556</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>0.7125578703703703</v>
+      </c>
+      <c r="G38" s="1" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
         <v>0.6778819444444445</v>
       </c>
-      <c r="B39" s="1" t="n"/>
+      <c r="B39" s="2" t="n">
+        <v>0.6831712962962962</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0.6917245370370371</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>0.6989004629629629</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>0.7052546296296296</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>0.7125694444444445</v>
+      </c>
+      <c r="G39" s="1" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
         <v>0.6778935185185185</v>
       </c>
-      <c r="B40" s="1" t="n"/>
+      <c r="B40" s="2" t="n">
+        <v>0.6831828703703704</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>0.6917361111111111</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>0.6989120370370371</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>0.7052662037037037</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>0.7125810185185185</v>
+      </c>
+      <c r="G40" s="1" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
         <v>0.6779050925925926</v>
       </c>
-      <c r="B41" s="1" t="n"/>
+      <c r="B41" s="2" t="n">
+        <v>0.6831944444444444</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>0.6917476851851851</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>0.6989236111111111</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>0.7052777777777778</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>0.7125925925925926</v>
+      </c>
+      <c r="G41" s="1" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
         <v>0.6779166666666666</v>
       </c>
-      <c r="B42" s="1" t="n"/>
+      <c r="B42" s="2" t="n">
+        <v>0.6832060185185185</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>0.6917592592592593</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>0.6989351851851852</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>0.7052893518518518</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>0.7126041666666667</v>
+      </c>
+      <c r="G42" s="1" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
         <v>0.6779282407407408</v>
       </c>
-      <c r="B43" s="1" t="n"/>
+      <c r="B43" s="2" t="n">
+        <v>0.6832175925925926</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0.6917708333333333</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>0.6989467592592593</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>0.705300925925926</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>0.7126157407407407</v>
+      </c>
+      <c r="G43" s="1" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
         <v>0.6779398148148148</v>
       </c>
-      <c r="B44" s="1" t="n"/>
+      <c r="B44" s="2" t="n">
+        <v>0.6832291666666667</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>0.6917824074074074</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>0.6989583333333333</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>0.7053125</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>0.7126273148148148</v>
+      </c>
+      <c r="G44" s="1" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
         <v>0.6779513888888888</v>
       </c>
-      <c r="B45" s="1" t="n"/>
+      <c r="B45" s="2" t="n">
+        <v>0.6832407407407407</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>0.6917939814814815</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>0.6989699074074074</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>0.705324074074074</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>0.7126388888888889</v>
+      </c>
+      <c r="G45" s="1" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
         <v>0.677962962962963</v>
       </c>
-      <c r="B46" s="1" t="n"/>
+      <c r="B46" s="2" t="n">
+        <v>0.6832523148148149</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>0.6918055555555556</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>0.6989814814814815</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>0.7053356481481482</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>0.712650462962963</v>
+      </c>
+      <c r="G46" s="1" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
         <v>0.677974537037037</v>
       </c>
-      <c r="B47" s="1" t="n"/>
+      <c r="B47" s="2" t="n">
+        <v>0.6832638888888889</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>0.6918171296296296</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>0.6989930555555556</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>0.7053472222222222</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>0.712662037037037</v>
+      </c>
+      <c r="G47" s="1" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
         <v>0.6779861111111111</v>
       </c>
-      <c r="B48" s="1" t="n"/>
+      <c r="B48" s="2" t="n">
+        <v>0.6832754629629629</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>0.6918287037037038</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>0.6990046296296296</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>0.7053587962962963</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>0.7126736111111112</v>
+      </c>
+      <c r="G48" s="1" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
         <v>0.6779976851851852</v>
       </c>
-      <c r="B49" s="1" t="n"/>
+      <c r="B49" s="2" t="n">
+        <v>0.6832870370370371</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>0.6918402777777778</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>0.6990162037037037</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>0.7053703703703704</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>0.7126851851851852</v>
+      </c>
+      <c r="G49" s="1" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
         <v>0.6780092592592593</v>
       </c>
-      <c r="B50" s="1" t="n"/>
+      <c r="B50" s="2" t="n">
+        <v>0.6832986111111111</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0.6918518518518518</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>0.6990277777777778</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>0.7053819444444445</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>0.7126967592592592</v>
+      </c>
+      <c r="G50" s="1" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
         <v>0.6780208333333333</v>
       </c>
-      <c r="B51" s="1" t="n"/>
+      <c r="B51" s="2" t="n">
+        <v>0.6833101851851852</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>0.691863425925926</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>0.6990393518518518</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>0.7053935185185185</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>0.7127083333333334</v>
+      </c>
+      <c r="G51" s="1" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
         <v>0.6780324074074074</v>
       </c>
-      <c r="B52" s="1" t="n"/>
+      <c r="B52" s="2" t="n">
+        <v>0.6833217592592593</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>0.691875</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>0.6990509259259259</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>0.7054050925925925</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>0.7127199074074074</v>
+      </c>
+      <c r="G52" s="1" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
         <v>0.6780439814814815</v>
       </c>
-      <c r="B53" s="1" t="n"/>
+      <c r="B53" s="2" t="n">
+        <v>0.6833333333333333</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>0.6918865740740741</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>0.6990625</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>0.7054166666666667</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>0.7127314814814815</v>
+      </c>
+      <c r="G53" s="1" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
         <v>0.6780555555555555</v>
       </c>
-      <c r="B54" s="1" t="n"/>
+      <c r="B54" s="2" t="n">
+        <v>0.6833449074074074</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0.6918981481481481</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>0.6990740740740741</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>0.7054282407407407</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>0.7127430555555555</v>
+      </c>
+      <c r="G54" s="1" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
         <v>0.6780671296296297</v>
       </c>
-      <c r="B55" s="1" t="n"/>
+      <c r="B55" s="2" t="n">
+        <v>0.6833564814814815</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>0.6919097222222222</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>0.6990856481481481</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>0.7054398148148148</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>0.7127546296296297</v>
+      </c>
+      <c r="G55" s="1" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
         <v>0.6780787037037037</v>
       </c>
-      <c r="B56" s="1" t="n"/>
+      <c r="B56" s="2" t="n">
+        <v>0.6833680555555556</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>0.6919212962962963</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>0.6990972222222223</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>0.7054513888888889</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>0.7127662037037037</v>
+      </c>
+      <c r="G56" s="1" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
         <v>0.6780902777777778</v>
       </c>
-      <c r="B57" s="1" t="n"/>
+      <c r="B57" s="2" t="n">
+        <v>0.6833796296296296</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>0.6919328703703703</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>0.6991087962962963</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>0.705462962962963</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>0.7127777777777777</v>
+      </c>
+      <c r="G57" s="1" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
         <v>0.6781018518518519</v>
       </c>
-      <c r="B58" s="1" t="n"/>
+      <c r="B58" s="2" t="n">
+        <v>0.6833912037037037</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>0.6919444444444445</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>0.6991203703703703</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>0.705474537037037</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>0.7127893518518519</v>
+      </c>
+      <c r="G58" s="1" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
         <v>0.6781134259259259</v>
       </c>
-      <c r="B59" s="1" t="n"/>
+      <c r="B59" s="2" t="n">
+        <v>0.6834027777777778</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>0.6919560185185185</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>0.6991319444444445</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>0.7054861111111111</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>0.7128009259259259</v>
+      </c>
+      <c r="G59" s="1" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
         <v>0.678125</v>
       </c>
-      <c r="B60" s="1" t="n"/>
+      <c r="B60" s="2" t="n">
+        <v>0.6834143518518518</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>0.6919675925925926</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>0.6991435185185185</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>0.7054976851851852</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>0.7128125</v>
+      </c>
+      <c r="G60" s="1" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
         <v>0.6781365740740741</v>
       </c>
-      <c r="B61" s="1" t="n"/>
+      <c r="B61" s="2" t="n">
+        <v>0.6834259259259259</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>0.6919791666666667</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>0.6991550925925926</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>0.7055092592592592</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>0.7128240740740741</v>
+      </c>
+      <c r="G61" s="1" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
         <v>0.6781481481481482</v>
       </c>
-      <c r="B62" s="1" t="n"/>
+      <c r="B62" s="2" t="n">
+        <v>0.6834375</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>0.6919907407407407</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>0.6991666666666667</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>0.7055208333333334</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>0.7128356481481481</v>
+      </c>
+      <c r="G62" s="1" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
         <v>0.6781597222222222</v>
       </c>
-      <c r="B63" s="1" t="n"/>
+      <c r="B63" s="2" t="n">
+        <v>0.6834490740740741</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>0.6920023148148148</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>0.6991782407407408</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>0.7055324074074074</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>0.7128472222222222</v>
+      </c>
+      <c r="G63" s="1" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
         <v>0.6781712962962962</v>
       </c>
-      <c r="B64" s="1" t="n"/>
+      <c r="B64" s="2" t="n">
+        <v>0.6834606481481481</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>0.6920138888888889</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>0.6991898148148148</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>0.7055439814814815</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>0.7128587962962963</v>
+      </c>
+      <c r="G64" s="1" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
         <v>0.6781828703703704</v>
       </c>
-      <c r="B65" s="1" t="n"/>
+      <c r="B65" s="2" t="n">
+        <v>0.6834722222222223</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>0.692025462962963</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>0.6992013888888889</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>0.7128703703703704</v>
+      </c>
+      <c r="G65" s="1" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
         <v>0.6781944444444444</v>
       </c>
-      <c r="B66" s="1" t="n"/>
+      <c r="B66" s="2" t="n">
+        <v>0.6834837962962963</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>0.692037037037037</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>0.699212962962963</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>0.7055671296296296</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>0.7128819444444444</v>
+      </c>
+      <c r="G66" s="1" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
         <v>0.6782060185185185</v>
       </c>
-      <c r="B67" s="1" t="n"/>
+      <c r="B67" s="2" t="n">
+        <v>0.6834953703703703</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>0.6920486111111112</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>0.699224537037037</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>0.7055787037037037</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>0.7128935185185186</v>
+      </c>
+      <c r="G67" s="1" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
         <v>0.6782175925925926</v>
       </c>
-      <c r="B68" s="1" t="n"/>
+      <c r="B68" s="2" t="n">
+        <v>0.6835069444444445</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>0.6920601851851852</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>0.6992361111111111</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>0.7055902777777778</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>0.7129050925925926</v>
+      </c>
+      <c r="G68" s="1" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
         <v>0.6782291666666667</v>
       </c>
-      <c r="B69" s="1" t="n"/>
+      <c r="B69" s="2" t="n">
+        <v>0.6835185185185185</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>0.6920717592592592</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>0.6992476851851852</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>0.7056018518518519</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>0.7129166666666666</v>
+      </c>
+      <c r="G69" s="1" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
         <v>0.6782407407407407</v>
       </c>
-      <c r="B70" s="1" t="n"/>
+      <c r="B70" s="2" t="n">
+        <v>0.6835300925925926</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>0.6920833333333334</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>0.6992592592592592</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>0.7056134259259259</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>0.7129282407407408</v>
+      </c>
+      <c r="G70" s="1" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
         <v>0.6782523148148148</v>
       </c>
-      <c r="B71" s="1" t="n"/>
+      <c r="B71" s="2" t="n">
+        <v>0.6835416666666667</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>0.6920949074074074</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>0.6992708333333333</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>0.7056249999999999</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>0.7129398148148148</v>
+      </c>
+      <c r="G71" s="1" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
         <v>0.6782638888888889</v>
       </c>
-      <c r="B72" s="1" t="n"/>
+      <c r="B72" s="2" t="n">
+        <v>0.6835532407407408</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>0.6921064814814815</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>0.6992824074074074</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>0.7056365740740741</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>0.7129513888888889</v>
+      </c>
+      <c r="G72" s="1" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
         <v>0.6782754629629629</v>
       </c>
-      <c r="B73" s="1" t="n"/>
+      <c r="B73" s="2" t="n">
+        <v>0.6835648148148148</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>0.6921180555555555</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>0.6992939814814815</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>0.7056481481481481</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>0.7129629629629629</v>
+      </c>
+      <c r="G73" s="1" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
         <v>0.6782870370370371</v>
       </c>
-      <c r="B74" s="1" t="n"/>
+      <c r="B74" s="2" t="n">
+        <v>0.6835763888888889</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>0.6921296296296297</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>0.6993055555555555</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>0.7056597222222222</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>0.7129745370370371</v>
+      </c>
+      <c r="G74" s="1" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
         <v>0.6782986111111111</v>
       </c>
-      <c r="B75" s="1" t="n"/>
+      <c r="B75" s="2" t="n">
+        <v>0.683587962962963</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>0.6921412037037037</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>0.6993171296296297</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>0.7056712962962963</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>0.7129861111111111</v>
+      </c>
+      <c r="G75" s="1" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
         <v>0.6783101851851852</v>
       </c>
-      <c r="B76" s="1" t="n"/>
+      <c r="B76" s="2" t="n">
+        <v>0.683599537037037</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>0.6921527777777777</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>0.6993287037037037</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>0.7056828703703704</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>0.7129976851851851</v>
+      </c>
+      <c r="G76" s="1" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
         <v>0.6783217592592593</v>
       </c>
-      <c r="B77" s="1" t="n"/>
+      <c r="B77" s="2" t="n">
+        <v>0.6836111111111111</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>0.6921643518518519</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>0.6993402777777777</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>0.7056944444444444</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>0.7130092592592593</v>
+      </c>
+      <c r="G77" s="1" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
         <v>0.6783333333333333</v>
       </c>
-      <c r="B78" s="1" t="n"/>
+      <c r="B78" s="2" t="n">
+        <v>0.6836226851851852</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0.6921759259259259</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>0.6993518518518519</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>0.7057060185185186</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>0.7130208333333333</v>
+      </c>
+      <c r="G78" s="1" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
         <v>0.6783449074074074</v>
       </c>
-      <c r="B79" s="1" t="n"/>
+      <c r="B79" s="2" t="n">
+        <v>0.6836342592592592</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0.6921875</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>0.6993634259259259</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>0.7057175925925926</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>0.7130324074074074</v>
+      </c>
+      <c r="G79" s="1" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
         <v>0.6783564814814815</v>
       </c>
-      <c r="B80" s="1" t="n"/>
+      <c r="B80" s="2" t="n">
+        <v>0.6836458333333333</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.6921990740740741</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>0.699375</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>0.7057291666666666</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>0.7130439814814815</v>
+      </c>
+      <c r="G80" s="1" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
         <v>0.6783680555555556</v>
       </c>
-      <c r="B81" s="1" t="n"/>
+      <c r="B81" s="2" t="n">
+        <v>0.6836574074074074</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.6922106481481481</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>0.6993865740740741</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>0.7057407407407408</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>0.7130555555555556</v>
+      </c>
+      <c r="G81" s="1" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
         <v>0.6783796296296296</v>
       </c>
-      <c r="B82" s="1" t="n"/>
+      <c r="B82" s="2" t="n">
+        <v>0.6836689814814815</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.6922222222222222</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>0.6993981481481482</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>0.7057523148148148</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>0.7130671296296296</v>
+      </c>
+      <c r="G82" s="1" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
         <v>0.6783912037037036</v>
       </c>
-      <c r="B83" s="1" t="n"/>
+      <c r="B83" s="2" t="n">
+        <v>0.6836805555555555</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.6922337962962963</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>0.6994097222222222</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>0.7057638888888889</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>0.7130787037037037</v>
+      </c>
+      <c r="G83" s="1" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
         <v>0.6784027777777778</v>
       </c>
-      <c r="B84" s="1" t="n"/>
+      <c r="B84" s="2" t="n">
+        <v>0.6836921296296297</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.6922453703703704</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>0.6994212962962963</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>0.705775462962963</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>0.7130902777777778</v>
+      </c>
+      <c r="G84" s="1" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
         <v>0.6784143518518518</v>
       </c>
-      <c r="B85" s="1" t="n"/>
+      <c r="B85" s="2" t="n">
+        <v>0.6837037037037037</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.6922569444444444</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>0.6994328703703704</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>0.705787037037037</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>0.7131018518518518</v>
+      </c>
+      <c r="G85" s="1" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
         <v>0.6784259259259259</v>
       </c>
-      <c r="B86" s="1" t="n"/>
+      <c r="B86" s="2" t="n">
+        <v>0.6837152777777777</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0.6922685185185186</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>0.6994444444444444</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>0.7057986111111111</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>0.713113425925926</v>
+      </c>
+      <c r="G86" s="1" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
         <v>0.6784375</v>
       </c>
-      <c r="B87" s="1" t="n"/>
+      <c r="B87" s="2" t="n">
+        <v>0.6837268518518519</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.6922800925925926</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>0.6994560185185185</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>0.7058101851851852</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>0.713125</v>
+      </c>
+      <c r="G87" s="1" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
         <v>0.6784490740740741</v>
       </c>
-      <c r="B88" s="1" t="n"/>
+      <c r="B88" s="2" t="n">
+        <v>0.6837384259259259</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.6922916666666666</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>0.6994675925925926</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>0.7058217592592593</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>0.713136574074074</v>
+      </c>
+      <c r="G88" s="1" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
         <v>0.6784606481481481</v>
       </c>
-      <c r="B89" s="1" t="n"/>
+      <c r="B89" s="2" t="n">
+        <v>0.68375</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>0.6923032407407408</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>0.6994791666666667</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>0.7058333333333333</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>0.7131481481481482</v>
+      </c>
+      <c r="G89" s="1" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
         <v>0.6784722222222223</v>
       </c>
-      <c r="B90" s="1" t="n"/>
+      <c r="B90" s="2" t="n">
+        <v>0.6837615740740741</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0.6923148148148148</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>0.6994907407407407</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>0.7058449074074075</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>0.7131597222222222</v>
+      </c>
+      <c r="G90" s="1" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
         <v>0.6784837962962963</v>
       </c>
-      <c r="B91" s="1" t="n"/>
+      <c r="B91" s="2" t="n">
+        <v>0.6837731481481482</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>0.6923263888888889</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0.6995023148148148</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>0.7058564814814815</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>0.7131712962962963</v>
+      </c>
+      <c r="G91" s="1" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
         <v>0.6784953703703703</v>
       </c>
-      <c r="B92" s="1" t="n"/>
+      <c r="B92" s="2" t="n">
+        <v>0.6837847222222222</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>0.692337962962963</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>0.6995138888888889</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>0.7058680555555555</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>0.7131828703703704</v>
+      </c>
+      <c r="G92" s="1" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
         <v>0.6785069444444445</v>
       </c>
-      <c r="B93" s="1" t="n"/>
+      <c r="B93" s="2" t="n">
+        <v>0.6837962962962963</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>0.6923495370370371</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0.6995254629629629</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>0.7058796296296296</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>0.7131944444444445</v>
+      </c>
+      <c r="G93" s="1" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
         <v>0.6785185185185185</v>
       </c>
-      <c r="B94" s="1" t="n"/>
+      <c r="B94" s="2" t="n">
+        <v>0.6838078703703704</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>0.6923611111111111</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>0.6995370370370371</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>0.7058912037037037</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>0.7132060185185185</v>
+      </c>
+      <c r="G94" s="1" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
         <v>0.6785300925925926</v>
       </c>
-      <c r="B95" s="1" t="n"/>
+      <c r="B95" s="2" t="n">
+        <v>0.6838194444444444</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0.6923726851851851</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>0.6995486111111111</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>0.7059027777777778</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>0.7132175925925925</v>
+      </c>
+      <c r="G95" s="1" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
         <v>0.6785416666666667</v>
       </c>
-      <c r="B96" s="1" t="n"/>
+      <c r="B96" s="2" t="n">
+        <v>0.6838310185185185</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>0.6923842592592593</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>0.6995601851851851</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>0.7059143518518518</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>0.7132291666666667</v>
+      </c>
+      <c r="G96" s="1" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
         <v>0.6785532407407407</v>
       </c>
-      <c r="B97" s="1" t="n"/>
+      <c r="B97" s="2" t="n">
+        <v>0.6838425925925926</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>0.6923958333333333</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>0.6995717592592593</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>0.705925925925926</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>0.7132407407407407</v>
+      </c>
+      <c r="G97" s="1" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
         <v>0.6785648148148148</v>
       </c>
-      <c r="B98" s="1" t="n"/>
+      <c r="B98" s="2" t="n">
+        <v>0.6838541666666667</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>0.6924074074074074</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>0.6995833333333333</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>0.7059375</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>0.7132523148148148</v>
+      </c>
+      <c r="G98" s="1" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
         <v>0.6785763888888889</v>
       </c>
-      <c r="B99" s="1" t="n"/>
+      <c r="B99" s="2" t="n">
+        <v>0.6838657407407407</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>0.6924189814814815</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>0.6995949074074074</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>0.705949074074074</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>0.7132638888888889</v>
+      </c>
+      <c r="G99" s="1" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
         <v>0.678587962962963</v>
       </c>
-      <c r="B100" s="1" t="n"/>
+      <c r="B100" s="2" t="n">
+        <v>0.6838773148148148</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>0.6924305555555555</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>0.6996064814814815</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>0.7059606481481482</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>0.713275462962963</v>
+      </c>
+      <c r="G100" s="1" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
         <v>0.678599537037037</v>
       </c>
-      <c r="B101" s="1" t="n"/>
+      <c r="B101" s="2" t="n">
+        <v>0.6838888888888889</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>0.6924421296296296</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>0.6996180555555556</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>0.7059722222222222</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>0.713287037037037</v>
+      </c>
+      <c r="G101" s="1" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
         <v>0.6786111111111112</v>
       </c>
-      <c r="B102" s="1" t="n"/>
+      <c r="B102" s="2" t="n">
+        <v>0.6839004629629629</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>0.6924537037037037</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>0.6996296296296296</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>0.7059837962962963</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>0.7132986111111111</v>
+      </c>
+      <c r="G102" s="1" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
         <v>0.6786226851851852</v>
       </c>
-      <c r="B103" s="1" t="n"/>
+      <c r="B103" s="2" t="n">
+        <v>0.6839120370370371</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>0.6924652777777778</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>0.6996412037037038</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>0.7059953703703704</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>0.7133101851851852</v>
+      </c>
+      <c r="G103" s="1" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
         <v>0.6786342592592592</v>
       </c>
-      <c r="B104" s="1" t="n"/>
+      <c r="B104" s="2" t="n">
+        <v>0.6839236111111111</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>0.6924768518518518</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>0.6996527777777778</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>0.7060069444444445</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>0.7133217592592592</v>
+      </c>
+      <c r="G104" s="1" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
         <v>0.6786458333333333</v>
       </c>
-      <c r="B105" s="1" t="n"/>
+      <c r="B105" s="2" t="n">
+        <v>0.6839351851851851</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>0.692488425925926</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0.6996643518518518</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>0.7060185185185185</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>0.7133333333333334</v>
+      </c>
+      <c r="G105" s="1" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
         <v>0.6786574074074074</v>
       </c>
-      <c r="B106" s="1" t="n"/>
+      <c r="B106" s="2" t="n">
+        <v>0.6839467592592593</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>0.6925</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0.699675925925926</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>0.7060300925925926</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>0.7133449074074074</v>
+      </c>
+      <c r="G106" s="1" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
         <v>0.6786689814814815</v>
       </c>
-      <c r="B107" s="1" t="n"/>
+      <c r="B107" s="2" t="n">
+        <v>0.6839583333333333</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>0.692511574074074</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0.6996875</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>0.7060416666666667</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>0.7133564814814815</v>
+      </c>
+      <c r="G107" s="1" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
         <v>0.6786805555555555</v>
       </c>
-      <c r="B108" s="1" t="n"/>
+      <c r="B108" s="2" t="n">
+        <v>0.6839699074074074</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0.6925231481481482</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0.6996990740740741</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>0.7060532407407407</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>0.7133680555555556</v>
+      </c>
+      <c r="G108" s="1" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
         <v>0.6786921296296297</v>
       </c>
-      <c r="B109" s="1" t="n"/>
+      <c r="B109" s="2" t="n">
+        <v>0.6839814814814815</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.6925347222222222</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0.6997106481481481</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>0.7060648148148149</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>0.7133796296296296</v>
+      </c>
+      <c r="G109" s="1" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
         <v>0.6787037037037037</v>
       </c>
-      <c r="B110" s="1" t="n"/>
+      <c r="B110" s="2" t="n">
+        <v>0.6839930555555556</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0.6925462962962963</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0.6997222222222222</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>0.7060763888888889</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>0.7133912037037037</v>
+      </c>
+      <c r="G110" s="1" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
         <v>0.6787152777777777</v>
       </c>
-      <c r="B111" s="1" t="n"/>
+      <c r="B111" s="2" t="n">
+        <v>0.6840046296296296</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>0.6925578703703704</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0.6997337962962963</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>0.7060879629629629</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>0.7134027777777778</v>
+      </c>
+      <c r="G111" s="1" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
         <v>0.6787268518518519</v>
       </c>
-      <c r="B112" s="1" t="n"/>
+      <c r="B112" s="2" t="n">
+        <v>0.6840162037037038</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>0.6925694444444445</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0.6997453703703703</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>0.706099537037037</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>0.7134143518518519</v>
+      </c>
+      <c r="G112" s="1" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
         <v>0.6787384259259259</v>
       </c>
-      <c r="B113" s="1" t="n"/>
+      <c r="B113" s="2" t="n">
+        <v>0.6840277777777778</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>0.6925810185185185</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0.6997569444444445</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>0.7061111111111111</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>0.7134259259259259</v>
+      </c>
+      <c r="G113" s="1" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
         <v>0.67875</v>
       </c>
-      <c r="B114" s="1" t="n"/>
+      <c r="B114" s="2" t="n">
+        <v>0.6840393518518518</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>0.6925925925925925</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0.6997685185185185</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>0.7061226851851852</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>0.7134374999999999</v>
+      </c>
+      <c r="G114" s="1" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
         <v>0.6787615740740741</v>
       </c>
-      <c r="B115" s="1" t="n"/>
+      <c r="B115" s="2" t="n">
+        <v>0.684050925925926</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>0.6926041666666667</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0.6997800925925926</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>0.7061342592592592</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>0.7134490740740741</v>
+      </c>
+      <c r="G115" s="1" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
         <v>0.6787731481481482</v>
       </c>
-      <c r="B116" s="1" t="n"/>
+      <c r="B116" s="2" t="n">
+        <v>0.6840625</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>0.6926157407407407</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0.6997916666666667</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>0.7061458333333334</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>0.7134606481481481</v>
+      </c>
+      <c r="G116" s="1" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
         <v>0.6787847222222222</v>
       </c>
-      <c r="B117" s="1" t="n"/>
+      <c r="B117" s="2" t="n">
+        <v>0.6840740740740741</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>0.6926273148148148</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0.6998032407407407</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>0.7061574074074074</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>0.7134722222222222</v>
+      </c>
+      <c r="G117" s="1" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
         <v>0.6787962962962963</v>
       </c>
-      <c r="B118" s="1" t="n"/>
+      <c r="B118" s="2" t="n">
+        <v>0.6840856481481481</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>0.6926388888888889</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0.6998148148148148</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>0.7061689814814814</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>0.7134837962962963</v>
+      </c>
+      <c r="G118" s="1" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
         <v>0.6788078703703704</v>
       </c>
-      <c r="B119" s="1" t="n"/>
+      <c r="B119" s="2" t="n">
+        <v>0.6840972222222222</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.692650462962963</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0.6998263888888889</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>0.7061805555555556</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>0.7134953703703704</v>
+      </c>
+      <c r="G119" s="1" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
         <v>0.6788194444444444</v>
       </c>
-      <c r="B120" s="1" t="n"/>
+      <c r="B120" s="2" t="n">
+        <v>0.6841087962962963</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.692662037037037</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0.699837962962963</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>0.7061921296296296</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>0.7135069444444444</v>
+      </c>
+      <c r="G120" s="1" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
         <v>0.6788310185185186</v>
       </c>
-      <c r="B121" s="1" t="n"/>
+      <c r="B121" s="2" t="n">
+        <v>0.6841203703703703</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.6926736111111111</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0.699849537037037</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>0.7062037037037037</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>0.7135185185185186</v>
+      </c>
+      <c r="G121" s="1" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>a 1</t>
         </is>
       </c>
-      <c r="B122" s="1" t="n"/>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>a 2</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>a 3</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>a 4</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="inlineStr">
+        <is>
+          <t>a 5</t>
+        </is>
+      </c>
+      <c r="F122" s="1" t="inlineStr">
+        <is>
+          <t>a 6</t>
+        </is>
+      </c>
+      <c r="G122" s="1" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>-0.1271043046739357</v>
       </c>
-      <c r="B123" s="1" t="n"/>
+      <c r="B123" s="1" t="n">
+        <v>0.8745211441766791</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>0.005124411417459539</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>0.007752419681922407</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>0.005873437113688526</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <v>-0.03511328185985133</v>
+      </c>
+      <c r="G123" s="1" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>R^2</t>
+          <t>R^2 1</t>
         </is>
       </c>
-      <c r="B124" s="1" t="n"/>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>R^2 2</t>
+        </is>
+      </c>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>R^2 3</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="inlineStr">
+        <is>
+          <t>R^2 4</t>
+        </is>
+      </c>
+      <c r="E124" s="1" t="inlineStr">
+        <is>
+          <t>R^2 5</t>
+        </is>
+      </c>
+      <c r="F124" s="1" t="inlineStr">
+        <is>
+          <t>R^2 6</t>
+        </is>
+      </c>
+      <c r="G124" s="1" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>0.6442862664257922</v>
       </c>
-      <c r="B125" s="1" t="n"/>
+      <c r="B125" s="1" t="n">
+        <v>0.251038941182083</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>0.09572426228262376</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>0.2146751559639829</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>0.07390342566958652</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>0.1830707877685708</v>
+      </c>
+      <c r="G125" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>